--- a/00文审机数值/Z-转盘表.xlsx
+++ b/00文审机数值/Z-转盘表.xlsx
@@ -122,7 +122,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-[{道具键:道具ID,数量键;数量}（转盘第一格奖励）,{道具键:道具ID,数量键;数量}（转盘第二格奖励）,···]
+[{货币键:货币ID,数量键;数量}（转盘第一格奖励）,{货币键:货币ID,数量键;数量}（转盘第二格奖励）,···]
 转盘的内容包括转盘内容一和转盘内容二</t>
         </r>
       </text>
@@ -418,12 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/00文审机数值/Z-转盘表.xlsx
+++ b/00文审机数值/Z-转盘表.xlsx
@@ -51,7 +51,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-[{道具键:道具ID,数量键;数量},{道具键:道具ID,数量键;数量},···]
+[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
 需要达到指定VIP等级和收集条件才能旋转
 </t>
         </r>
@@ -76,7 +76,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-[{道具键:道具ID,数量键;数量},{道具键:道具ID,数量键;数量},···]
+[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
 </t>
         </r>
       </text>
@@ -146,7 +146,7 @@
           </rPr>
           <t xml:space="preserve">
 格式：
-道具ID:数量（转盘第一格奖励）,道具ID:数量（转盘第二格奖励）,···
+货币ID:数量（转盘第一格奖励）,货币ID:数量（转盘第二格奖励）,···
 #JPBonus代表公共头奖奖池
 转盘的内容包括转盘内容一和转盘内容二</t>
         </r>
@@ -243,7 +243,7 @@
     <t>[{"item":10003,"num":600}]</t>
   </si>
   <si>
-    <t>[{"item":10002,"num":300},{"item":10002,"num":300},{"item":10002,"num":350},{"item":10002,"num":300},{"item":10002,"num":400},{"item":10002,"num":350},{"item":10002,"num":300},{"item":10002,"num":400},{"item":10002,"num":100},{"item":10002,"num":350}]</t>
+    <t>[{"item":10002,"num":300},{"item":10002,"num":300},{"item":10002,"num":350},{"item":10002,"num":300},{"item":10002,"num":400},{"item":10002,"num":350},{"item":10002,"num":300},{"item":10002,"num":400},{"item":10002,"num":300},{"item":10002,"num":350}]</t>
   </si>
   <si>
     <t>10002:#JPBonus*0.15,10002:#JPBonus*0.20</t>
@@ -418,12 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>

--- a/00文审机数值/Z-转盘表.xlsx
+++ b/00文审机数值/Z-转盘表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -418,12 +418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -998,6 +998,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/woinfos.xml><?xml version="1.0" encoding="utf-8"?>
+<woInfos xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookInfo cellCmpFml="0">
+    <open main="91" threadCnt="1"/>
+    <sheetInfos>
+      <sheetInfo cellCmpFml="0" sheetStid="3">
+        <open main="16" threadCnt="1"/>
+      </sheetInfo>
+    </sheetInfos>
+  </bookInfo>
+</woInfos>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,7 +1284,7 @@
     <col min="4" max="4" width="20.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="29.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="17.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="54.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="60.375" style="5" customWidth="1"/>
     <col min="8" max="8" width="42.625" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
@@ -1436,8 +1456,149 @@
     <row r="15" s="4" customFormat="1"/>
     <row r="16" s="4" customFormat="1"/>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <commentList sheetStid="3">
+    <commentChains s:ref="C1" rgbClr="FF0000">
+      <unresolved>
+        <commentChain chainId="87ef73385fbe663524b1ef6e82b39d56bf003852">
+          <item id="08c6cede67ea382b626cecebcff64de290b1acf9" isNormal="1">
+            <s:text>
+              <s:r>
+                <s:t xml:space="preserve">WIN:
+格式：
+[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
+需要达到指定VIP等级和收集条件才能旋转
+</s:t>
+              </s:r>
+            </s:text>
+          </item>
+        </commentChain>
+      </unresolved>
+      <resolved/>
+    </commentChains>
+    <commentChains s:ref="E1" rgbClr="FF0000">
+      <unresolved>
+        <commentChain chainId="ea71cee3d1f2be2891befc05818ed960a15bce06">
+          <item id="0c5e2b068d85872954e8e8cf7e34125d59b0efb1" isNormal="1">
+            <s:text>
+              <s:r>
+                <s:t xml:space="preserve">WIN:
+格式：
+[{货币键:货币ID,数量键;数量},{货币键:货币ID,数量键;数量},···]
+</s:t>
+              </s:r>
+            </s:text>
+          </item>
+        </commentChain>
+      </unresolved>
+      <resolved/>
+    </commentChains>
+    <commentChains s:ref="F1" rgbClr="FF0000">
+      <unresolved>
+        <commentChain chainId="d46754f3200e1afb0e94fd26a3289efe08c3a9e6">
+          <item id="fd6b53b8d278c9aa7bc86938e7aec5d02dee2443" isNormal="1">
+            <s:text>
+              <s:r>
+                <s:t xml:space="preserve">WIN:
+需要达到指定VIP等级和收集条件才能旋转</s:t>
+              </s:r>
+            </s:text>
+          </item>
+        </commentChain>
+      </unresolved>
+      <resolved/>
+    </commentChains>
+    <commentChains s:ref="G1" rgbClr="FF0000">
+      <unresolved>
+        <commentChain chainId="5451230931941867c3b14b15b61e5a2d1feae942">
+          <item id="4492502671b855da51180dbe4832ceb97610422b" isNormal="1">
+            <s:text>
+              <s:r>
+                <s:t xml:space="preserve">WIN:
+格式：
+[{货币键:货币ID,数量键;数量}（转盘第一格奖励）,{货币键:货币ID,数量键;数量}（转盘第二格奖励）,···]
+转盘的内容包括转盘内容一和转盘内容二</s:t>
+              </s:r>
+            </s:text>
+          </item>
+        </commentChain>
+      </unresolved>
+      <resolved/>
+    </commentChains>
+    <commentChains s:ref="H1" rgbClr="FF0000">
+      <unresolved>
+        <commentChain chainId="92109755520622d6c1459a10ab96e9b727408a35">
+          <item id="a21dbfa8ee193f2e30281dde97b7899711f218f0" isNormal="1">
+            <s:text>
+              <s:r>
+                <s:t xml:space="preserve">WIN:
+格式：
+货币ID:数量（转盘第一格奖励）,货币ID:数量（转盘第二格奖励）,···
+#JPBonus代表公共头奖奖池
+转盘的内容包括转盘内容一和转盘内容二</s:t>
+              </s:r>
+            </s:text>
+          </item>
+        </commentChain>
+      </unresolved>
+      <resolved/>
+    </commentChains>
+  </commentList>
+</comments>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <woSheetsProps>
+    <woSheetProps sheetStid="3" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
+      <cellprotection/>
+      <appEtDbRelations/>
+    </woSheetProps>
+  </woSheetsProps>
+  <woBookProps>
+    <bookSettings fileId="406113635078" isFilterShared="1" coreConquerUserId="" isAutoUpdatePaused="0" filterType="conn" isMergeTasksAutoUpdate="0" isInserPicAsAttachment="0"/>
+  </woBookProps>
+</woProps>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+</pixelators>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>